--- a/mapping-pn13/ig/StructureDefinition-oncofair-element-form.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-element-form.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T13:59:04+00:00</t>
+    <t>2024-04-22T14:39:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-element-form.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-element-form.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="108">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T14:39:57+00:00</t>
+    <t>2024-04-22T15:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -255,9 +255,6 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ELEMENT D'ADMINISTRATION, ELEMENT DE PRESCRIPTION</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -924,7 +921,7 @@
         <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>75</v>
@@ -932,10 +929,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -946,25 +943,25 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1015,33 +1012,33 @@
         <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1064,13 +1061,13 @@
         <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1109,19 +1106,19 @@
         <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
@@ -1144,10 +1141,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1155,10 +1152,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>75</v>
@@ -1170,16 +1167,16 @@
         <v>75</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1229,13 +1226,13 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>75</v>
@@ -1247,15 +1244,15 @@
         <v>75</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1266,7 +1263,7 @@
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>75</v>
@@ -1278,13 +1275,13 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1335,25 +1332,25 @@
         <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AJ6" t="s" s="2">
+      <c r="AK6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AK6" t="s" s="2">
-        <v>108</v>
-      </c>
       <c r="AL6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-element-form.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-element-form.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T15:15:59+00:00</t>
+    <t>2024-04-23T15:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-element-form.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-element-form.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T15:10:46+00:00</t>
+    <t>2024-04-24T09:25:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/StructureDefinition-oncofair-element-form.xlsx
+++ b/mapping-pn13/ig/StructureDefinition-oncofair-element-form.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-24T09:25:28+00:00</t>
+    <t>2024-04-29T13:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
